--- a/data/data_reextracted_and_annotated.xlsx
+++ b/data/data_reextracted_and_annotated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ian/git/reanalysis-of-vahey-2015/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBA88DF-4923-BC4F-A584-429A8D49B03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9CBEB-4270-7D41-9E36-D1F71DCD2153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -182,9 +182,6 @@
     <t>DV</t>
   </si>
   <si>
-    <t>Vahey apparently treated partial eta squared as if it is equivalent to eta squared when converting to pearson's r. This was inappropriate: first, they do not have equivalent mathmathical conversion (parital eta squared's converion is non trivial), and second partial eta squared has nonequivalent interpretations between different factorial designs (and effect sizes here are drawn from different factorial designs here). Not reextracted as it removed as a problematic analysis.</t>
-  </si>
-  <si>
     <t>overall d pre</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Within-between intereaction - controls versus group with mild depression from baseline across an intervention designed to induce sad thinking</t>
   </si>
   <si>
-    <t>Vahey apparently treated partial eta squared as if it is equivalent to eta squared when converting to pearson's r. This was inappropriate: first, they do not have equivalent mathmathical conversion (parital eta squared's converion is non trivial), and second partial eta squared has nonequivalent interpretations between different factorial designs (and effect sizes here are drawn from different factorial designs here). This type of analysis is later removed as a problematic analysis. However, in this case, r was able to be recalculated from new anova fit to original study's raw data. This (a) confirmed result report in the paper, and (b) provided a reextracted r value for new meta analysis.</t>
-  </si>
-  <si>
     <t>Life Good - Feel Good Before Exposure</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>depression group</t>
   </si>
   <si>
-    <t>Not reextracted as it removed as a problematic analysis: external variable (group) was used to predict IRAP scores and not the other way around.</t>
-  </si>
-  <si>
     <t>expect negative tt</t>
   </si>
   <si>
@@ -524,9 +515,6 @@
     <t>Between groups comparison - not dieting versus those dieting</t>
   </si>
   <si>
-    <t>Not reextracted as it removed as a problematic analysis: external variable (group) was used to predict IRAP scores and not the other way around. This comparison was between those not dieting versus those dieting. NB there were two dieting groups, one to lose weight and one to maintain. Vahey does not note which they are comparing, or why one comparison was excluded.</t>
-  </si>
-  <si>
     <t>overall D-IRAP score</t>
   </si>
   <si>
@@ -669,6 +657,18 @@
   </si>
   <si>
     <t>replaced_effect</t>
+  </si>
+  <si>
+    <t>Vahey apparently treated partial eta squared as if it is equivalent to eta squared when converting to pearson's r. This was inappropriate: first, they do not have equivalent mathmathical conversion (parital eta squared's converion is non trivial), and second partial eta squared has nonequivalent interpretations between different factorial designs (and effect sizes here are drawn from different factorial designs here). Not reextracted for this reason.</t>
+  </si>
+  <si>
+    <t>Vahey apparently treated partial eta squared as if it is equivalent to eta squared when converting to pearson's r. This was inappropriate: first, they do not have equivalent mathmathical conversion (parital eta squared's converion is non trivial), and second partial eta squared has nonequivalent interpretations between different factorial designs (and effect sizes here are drawn from different factorial designs here). Not reextracted for this reason. Appropriate effect sizes calculated from raw data in below rows.</t>
+  </si>
+  <si>
+    <t>Pairwise comparisons were extracted in the below rows, rather than compound comparison.</t>
+  </si>
+  <si>
+    <t>This comparison was between those not dieting versus those dieting. NB there were two dieting groups, one to lose weight and one to maintain. Vahey does not note which they are comparing, or why one comparison was excluded.</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,12 +997,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1164,7 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1173,18 +1167,14 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1540,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K306" sqref="K306"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R218" sqref="R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,63 +1543,64 @@
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="17" width="14.5" customWidth="1"/>
+    <col min="11" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="17" width="34.5" customWidth="1"/>
     <col min="18" max="18" width="96.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3570,7 +3561,7 @@
       <c r="K38">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M38" t="s">
@@ -3589,7 +3580,7 @@
         <v>22</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -3626,7 +3617,7 @@
       <c r="K39">
         <v>0.42</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M39" t="s">
@@ -3645,7 +3636,7 @@
         <v>22</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -3682,7 +3673,7 @@
       <c r="K40">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M40" t="s">
@@ -3701,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -3738,7 +3729,7 @@
       <c r="K41">
         <v>0.33</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M41" t="s">
@@ -3757,7 +3748,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4330,7 +4321,7 @@
       <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E52" t="s">
@@ -4354,7 +4345,7 @@
       <c r="K52">
         <v>0.44</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M52" t="s">
@@ -4372,8 +4363,8 @@
       <c r="Q52" t="s">
         <v>22</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>50</v>
+      <c r="R52" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -4386,17 +4377,17 @@
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s">
         <v>51</v>
-      </c>
-      <c r="G53" t="s">
-        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>20</v>
@@ -4439,17 +4430,17 @@
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
         <v>20</v>
@@ -4482,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>16</v>
       </c>
@@ -4493,16 +4484,16 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
       <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
         <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>56</v>
       </c>
       <c r="H55" t="s">
         <v>49</v>
@@ -4516,7 +4507,7 @@
       <c r="K55">
         <v>0.51</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M55" t="s">
@@ -4534,8 +4525,8 @@
       <c r="Q55" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="3" t="s">
-        <v>57</v>
+      <c r="R55" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4549,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" t="s">
         <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -4605,16 +4596,16 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
@@ -4661,16 +4652,16 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
@@ -4717,16 +4708,16 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" t="s">
         <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -4773,16 +4764,16 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" t="s">
         <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
@@ -4829,16 +4820,16 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -4885,16 +4876,16 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62" t="s">
         <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
@@ -4941,16 +4932,16 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
         <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
@@ -4997,16 +4988,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
         <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -5053,16 +5044,16 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65" t="s">
         <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
@@ -5109,16 +5100,16 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" t="s">
         <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
@@ -5165,16 +5156,16 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E67" t="s">
         <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
@@ -5221,16 +5212,16 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E68" t="s">
         <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
@@ -5277,16 +5268,16 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
         <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
@@ -5333,16 +5324,16 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
         <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
@@ -5389,16 +5380,16 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
         <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
         <v>20</v>
@@ -5445,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
         <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
         <v>20</v>
@@ -5501,16 +5492,16 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
         <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
@@ -5557,16 +5548,16 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" t="s">
         <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
@@ -5613,16 +5604,16 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E75" t="s">
         <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
         <v>20</v>
@@ -5669,16 +5660,16 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E76" t="s">
         <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
@@ -5725,16 +5716,16 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" t="s">
         <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
@@ -5781,16 +5772,16 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E78" t="s">
         <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
@@ -5837,16 +5828,16 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
         <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
@@ -5893,16 +5884,16 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E80" t="s">
         <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H80" t="s">
         <v>20</v>
@@ -5949,16 +5940,16 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
         <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
@@ -6005,16 +5996,16 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" t="s">
         <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H82" t="s">
         <v>20</v>
@@ -6061,16 +6052,16 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" t="s">
         <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
@@ -6117,16 +6108,16 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E84" t="s">
         <v>42</v>
       </c>
       <c r="F84" t="s">
+        <v>68</v>
+      </c>
+      <c r="G84" t="s">
         <v>70</v>
-      </c>
-      <c r="G84" t="s">
-        <v>72</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
@@ -6173,16 +6164,16 @@
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E85" t="s">
         <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
@@ -6229,16 +6220,16 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" t="s">
         <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
@@ -6285,16 +6276,16 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" t="s">
         <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
@@ -6341,16 +6332,16 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" t="s">
         <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
@@ -6397,16 +6388,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E89" t="s">
         <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
         <v>20</v>
@@ -6453,16 +6444,16 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
         <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -6509,16 +6500,16 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E91" t="s">
         <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
@@ -6565,16 +6556,16 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
         <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
@@ -6621,16 +6612,16 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E93" t="s">
         <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
@@ -6677,16 +6668,16 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" t="s">
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G94" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
         <v>20</v>
@@ -6733,16 +6724,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
         <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
         <v>20</v>
@@ -6789,16 +6780,16 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
         <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G96" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H96" t="s">
         <v>20</v>
@@ -6845,16 +6836,16 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E97" t="s">
         <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H97" t="s">
         <v>20</v>
@@ -6901,16 +6892,16 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H98" t="s">
         <v>20</v>
@@ -6957,16 +6948,16 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" t="s">
         <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
@@ -7013,16 +7004,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E100" t="s">
         <v>42</v>
       </c>
       <c r="F100" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" t="s">
         <v>71</v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
@@ -7069,16 +7060,16 @@
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E101" t="s">
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s">
         <v>20</v>
@@ -7125,16 +7116,16 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E102" t="s">
         <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s">
         <v>20</v>
@@ -7181,16 +7172,16 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E103" t="s">
         <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
@@ -7237,16 +7228,16 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" t="s">
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
@@ -7293,16 +7284,16 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" t="s">
         <v>42</v>
       </c>
       <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" t="s">
         <v>51</v>
-      </c>
-      <c r="G105" t="s">
-        <v>52</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
@@ -7349,16 +7340,16 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E106" t="s">
         <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H106" t="s">
         <v>20</v>
@@ -7405,16 +7396,16 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E107" t="s">
         <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s">
         <v>20</v>
@@ -7461,16 +7452,16 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E108" t="s">
         <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H108" t="s">
         <v>20</v>
@@ -7517,16 +7508,16 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E109" t="s">
         <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H109" t="s">
         <v>20</v>
@@ -7573,16 +7564,16 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E110" t="s">
         <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
@@ -7629,16 +7620,16 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E111" t="s">
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
@@ -7685,16 +7676,16 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E112" t="s">
         <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s">
         <v>20</v>
@@ -7741,16 +7732,16 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E113" t="s">
         <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s">
         <v>20</v>
@@ -7797,16 +7788,16 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" t="s">
         <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s">
         <v>20</v>
@@ -7853,16 +7844,16 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E115" t="s">
         <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G115" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s">
         <v>20</v>
@@ -7909,13 +7900,13 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
         <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -7932,7 +7923,7 @@
       <c r="K116">
         <v>0.7</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M116" t="s">
@@ -7951,10 +7942,10 @@
         <v>22</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>18</v>
       </c>
@@ -7964,17 +7955,17 @@
       <c r="C117" t="b">
         <v>1</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>76</v>
+      <c r="D117" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E117" t="s">
         <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H117" t="s">
         <v>49</v>
@@ -8006,11 +7997,9 @@
       <c r="Q117" t="b">
         <v>1</v>
       </c>
-      <c r="R117" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="R117" s="6"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>155</v>
       </c>
@@ -8020,17 +8009,17 @@
       <c r="C118" t="b">
         <v>1</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>76</v>
+      <c r="D118" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E118" t="s">
         <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G118" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H118" t="s">
         <v>49</v>
@@ -8062,9 +8051,7 @@
       <c r="Q118" t="b">
         <v>1</v>
       </c>
-      <c r="R118" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="R118" s="6"/>
     </row>
     <row r="119" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A119">
@@ -8077,13 +8064,13 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E119" t="s">
         <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -8100,7 +8087,7 @@
       <c r="K119">
         <v>0.66</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M119" t="s">
@@ -8119,7 +8106,7 @@
         <v>22</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
@@ -8133,16 +8120,16 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E120" t="s">
         <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s">
         <v>49</v>
@@ -8186,16 +8173,16 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E121" t="s">
         <v>34</v>
       </c>
       <c r="F121" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H121" t="s">
         <v>49</v>
@@ -8239,16 +8226,16 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
       </c>
       <c r="F122" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" t="s">
         <v>82</v>
-      </c>
-      <c r="G122" t="s">
-        <v>85</v>
       </c>
       <c r="H122" t="s">
         <v>49</v>
@@ -8292,16 +8279,16 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
+        <v>78</v>
+      </c>
+      <c r="E123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
         <v>81</v>
       </c>
-      <c r="E123" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" t="s">
-        <v>84</v>
-      </c>
       <c r="G123" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H123" t="s">
         <v>49</v>
@@ -8345,16 +8332,16 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G124" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H124" t="s">
         <v>49</v>
@@ -8398,16 +8385,16 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
+        <v>78</v>
+      </c>
+      <c r="E125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" t="s">
         <v>81</v>
       </c>
-      <c r="E125" t="s">
-        <v>17</v>
-      </c>
-      <c r="F125" t="s">
-        <v>84</v>
-      </c>
       <c r="G125" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H125" t="s">
         <v>49</v>
@@ -8451,13 +8438,13 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E126" t="s">
         <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G126" t="s">
         <v>37</v>
@@ -8474,7 +8461,7 @@
       <c r="K126">
         <v>0.66</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M126" t="s">
@@ -8493,7 +8480,7 @@
         <v>22</v>
       </c>
       <c r="R126" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -8507,13 +8494,13 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E127" t="s">
         <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
         <v>37</v>
@@ -8530,7 +8517,7 @@
       <c r="K127">
         <v>0.45</v>
       </c>
-      <c r="L127" t="s">
+      <c r="L127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M127" t="s">
@@ -8549,7 +8536,7 @@
         <v>22</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -8563,16 +8550,16 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
@@ -8605,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
@@ -8619,16 +8606,16 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G129" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
@@ -8672,16 +8659,16 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
       </c>
       <c r="F130" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s">
         <v>91</v>
-      </c>
-      <c r="G130" t="s">
-        <v>94</v>
       </c>
       <c r="H130" t="s">
         <v>20</v>
@@ -8725,16 +8712,16 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E131" t="s">
         <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
@@ -8778,16 +8765,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E132" t="s">
         <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
@@ -8831,16 +8818,16 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
@@ -8884,16 +8871,16 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E134" t="s">
         <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G134" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H134" t="s">
         <v>20</v>
@@ -8926,7 +8913,7 @@
         <v>22</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -8940,16 +8927,16 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E135" t="s">
         <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
@@ -8982,7 +8969,7 @@
         <v>22</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -8996,16 +8983,16 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E136" t="s">
         <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H136" t="s">
         <v>20</v>
@@ -9038,7 +9025,7 @@
         <v>22</v>
       </c>
       <c r="R136" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
@@ -9052,16 +9039,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G137" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
@@ -9105,16 +9092,16 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G138" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
@@ -9158,16 +9145,16 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E139" t="s">
         <v>17</v>
       </c>
       <c r="F139" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G139" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H139" t="s">
         <v>20</v>
@@ -9211,16 +9198,16 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G140" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
@@ -9264,16 +9251,16 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E141" t="s">
         <v>17</v>
       </c>
       <c r="F141" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G141" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
@@ -9317,16 +9304,16 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E142" t="s">
         <v>17</v>
       </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G142" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H142" t="s">
         <v>20</v>
@@ -9370,16 +9357,16 @@
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E143" t="s">
         <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G143" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H143" t="s">
         <v>20</v>
@@ -9412,7 +9399,7 @@
         <v>22</v>
       </c>
       <c r="R143" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -9426,16 +9413,16 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E144" t="s">
         <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G144" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H144" t="s">
         <v>20</v>
@@ -9468,7 +9455,7 @@
         <v>22</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -9482,16 +9469,16 @@
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E145" t="s">
         <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G145" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H145" t="s">
         <v>20</v>
@@ -9524,7 +9511,7 @@
         <v>22</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -9538,13 +9525,13 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E146" t="s">
         <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G146" t="s">
         <v>37</v>
@@ -9561,7 +9548,7 @@
       <c r="K146">
         <v>0.84</v>
       </c>
-      <c r="L146" t="s">
+      <c r="L146" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M146" t="s">
@@ -9580,7 +9567,7 @@
         <v>22</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -9594,13 +9581,13 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E147" t="s">
         <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G147" t="s">
         <v>37</v>
@@ -9617,7 +9604,7 @@
       <c r="K147">
         <v>0.71</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L147" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M147" t="s">
@@ -9636,7 +9623,7 @@
         <v>22</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="68" x14ac:dyDescent="0.2">
@@ -9650,16 +9637,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
+        <v>104</v>
+      </c>
+      <c r="E148" t="s">
+        <v>17</v>
+      </c>
+      <c r="F148" t="s">
         <v>107</v>
       </c>
-      <c r="E148" t="s">
-        <v>17</v>
-      </c>
-      <c r="F148" t="s">
-        <v>110</v>
-      </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H148" t="s">
         <v>20</v>
@@ -9692,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -9706,16 +9693,16 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" t="s">
+        <v>17</v>
+      </c>
+      <c r="F149" t="s">
         <v>107</v>
       </c>
-      <c r="E149" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" t="s">
-        <v>110</v>
-      </c>
       <c r="G149" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H149" t="s">
         <v>20</v>
@@ -9748,7 +9735,7 @@
         <v>22</v>
       </c>
       <c r="R149" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
@@ -9762,16 +9749,16 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" t="s">
         <v>107</v>
       </c>
-      <c r="E150" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>110</v>
-      </c>
-      <c r="G150" t="s">
-        <v>113</v>
       </c>
       <c r="H150" t="s">
         <v>20</v>
@@ -9815,16 +9802,16 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" t="s">
+        <v>17</v>
+      </c>
+      <c r="F151" t="s">
         <v>107</v>
       </c>
-      <c r="E151" t="s">
-        <v>17</v>
-      </c>
-      <c r="F151" t="s">
-        <v>110</v>
-      </c>
       <c r="G151" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H151" t="s">
         <v>20</v>
@@ -9868,16 +9855,16 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" t="s">
         <v>107</v>
       </c>
-      <c r="E152" t="s">
-        <v>17</v>
-      </c>
-      <c r="F152" t="s">
-        <v>110</v>
-      </c>
       <c r="G152" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H152" t="s">
         <v>20</v>
@@ -9921,16 +9908,16 @@
         <v>1</v>
       </c>
       <c r="D153" t="s">
+        <v>104</v>
+      </c>
+      <c r="E153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" t="s">
         <v>107</v>
       </c>
-      <c r="E153" t="s">
-        <v>17</v>
-      </c>
-      <c r="F153" t="s">
-        <v>110</v>
-      </c>
       <c r="G153" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H153" t="s">
         <v>20</v>
@@ -9974,16 +9961,16 @@
         <v>1</v>
       </c>
       <c r="D154" t="s">
+        <v>104</v>
+      </c>
+      <c r="E154" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" t="s">
         <v>107</v>
       </c>
-      <c r="E154" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" t="s">
-        <v>110</v>
-      </c>
       <c r="G154" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H154" t="s">
         <v>20</v>
@@ -10027,16 +10014,16 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" t="s">
         <v>107</v>
       </c>
-      <c r="E155" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" t="s">
-        <v>110</v>
-      </c>
       <c r="G155" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H155" t="s">
         <v>20</v>
@@ -10069,7 +10056,7 @@
         <v>22</v>
       </c>
       <c r="R155" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
@@ -10083,16 +10070,16 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
+        <v>104</v>
+      </c>
+      <c r="E156" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" t="s">
         <v>107</v>
       </c>
-      <c r="E156" t="s">
-        <v>17</v>
-      </c>
-      <c r="F156" t="s">
-        <v>110</v>
-      </c>
       <c r="G156" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H156" t="s">
         <v>20</v>
@@ -10136,16 +10123,16 @@
         <v>1</v>
       </c>
       <c r="D157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" t="s">
         <v>107</v>
       </c>
-      <c r="E157" t="s">
-        <v>17</v>
-      </c>
-      <c r="F157" t="s">
-        <v>110</v>
-      </c>
       <c r="G157" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H157" t="s">
         <v>20</v>
@@ -10189,16 +10176,16 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
+        <v>104</v>
+      </c>
+      <c r="E158" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" t="s">
         <v>107</v>
       </c>
-      <c r="E158" t="s">
-        <v>17</v>
-      </c>
-      <c r="F158" t="s">
-        <v>110</v>
-      </c>
       <c r="G158" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H158" t="s">
         <v>20</v>
@@ -10242,16 +10229,16 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
+        <v>104</v>
+      </c>
+      <c r="E159" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" t="s">
         <v>107</v>
       </c>
-      <c r="E159" t="s">
-        <v>17</v>
-      </c>
-      <c r="F159" t="s">
-        <v>110</v>
-      </c>
       <c r="G159" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H159" t="s">
         <v>20</v>
@@ -10295,16 +10282,16 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" t="s">
         <v>107</v>
       </c>
-      <c r="E160" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" t="s">
-        <v>110</v>
-      </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H160" t="s">
         <v>20</v>
@@ -10348,16 +10335,16 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E161" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" t="s">
         <v>107</v>
       </c>
-      <c r="E161" t="s">
-        <v>17</v>
-      </c>
-      <c r="F161" t="s">
-        <v>110</v>
-      </c>
       <c r="G161" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H161" t="s">
         <v>20</v>
@@ -10401,16 +10388,16 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E162" t="s">
         <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G162" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H162" t="s">
         <v>20</v>
@@ -10454,16 +10441,16 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G163" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H163" t="s">
         <v>20</v>
@@ -10496,7 +10483,7 @@
         <v>22</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
@@ -10510,16 +10497,16 @@
         <v>1</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G164" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H164" t="s">
         <v>20</v>
@@ -10563,16 +10550,16 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
       </c>
       <c r="F165" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G165" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H165" t="s">
         <v>20</v>
@@ -10616,16 +10603,16 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E166" t="s">
         <v>17</v>
       </c>
       <c r="F166" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G166" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H166" t="s">
         <v>20</v>
@@ -10669,16 +10656,16 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E167" t="s">
         <v>17</v>
       </c>
       <c r="F167" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G167" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H167" t="s">
         <v>20</v>
@@ -10722,16 +10709,16 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E168" t="s">
         <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G168" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H168" t="s">
         <v>20</v>
@@ -10775,16 +10762,16 @@
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E169" t="s">
         <v>17</v>
       </c>
       <c r="F169" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H169" t="s">
         <v>20</v>
@@ -10817,7 +10804,7 @@
         <v>22</v>
       </c>
       <c r="R169" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
@@ -10831,16 +10818,16 @@
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E170" t="s">
         <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G170" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H170" t="s">
         <v>20</v>
@@ -10884,16 +10871,16 @@
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E171" t="s">
         <v>17</v>
       </c>
       <c r="F171" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G171" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H171" t="s">
         <v>20</v>
@@ -10937,16 +10924,16 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E172" t="s">
         <v>17</v>
       </c>
       <c r="F172" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G172" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H172" t="s">
         <v>20</v>
@@ -10990,16 +10977,16 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E173" t="s">
         <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G173" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H173" t="s">
         <v>20</v>
@@ -11043,16 +11030,16 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E174" t="s">
         <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H174" t="s">
         <v>20</v>
@@ -11096,16 +11083,16 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G175" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H175" t="s">
         <v>20</v>
@@ -11149,13 +11136,13 @@
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E176" t="s">
         <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G176" t="s">
         <v>37</v>
@@ -11172,7 +11159,7 @@
       <c r="K176">
         <v>0.66</v>
       </c>
-      <c r="L176" t="s">
+      <c r="L176" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M176" t="s">
@@ -11191,7 +11178,7 @@
         <v>22</v>
       </c>
       <c r="R176" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -11205,13 +11192,13 @@
         <v>1</v>
       </c>
       <c r="D177" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E177" t="s">
         <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -11228,7 +11215,7 @@
       <c r="K177">
         <v>0.72</v>
       </c>
-      <c r="L177" t="s">
+      <c r="L177" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M177" t="s">
@@ -11247,7 +11234,7 @@
         <v>22</v>
       </c>
       <c r="R177" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
@@ -11261,16 +11248,16 @@
         <v>1</v>
       </c>
       <c r="D178" t="s">
+        <v>121</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
         <v>124</v>
       </c>
-      <c r="E178" t="s">
-        <v>17</v>
-      </c>
-      <c r="F178" t="s">
-        <v>127</v>
-      </c>
       <c r="G178" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H178" t="s">
         <v>20</v>
@@ -11314,16 +11301,16 @@
         <v>1</v>
       </c>
       <c r="D179" t="s">
+        <v>121</v>
+      </c>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" t="s">
         <v>124</v>
       </c>
-      <c r="E179" t="s">
-        <v>17</v>
-      </c>
-      <c r="F179" t="s">
-        <v>127</v>
-      </c>
       <c r="G179" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H179" t="s">
         <v>20</v>
@@ -11367,16 +11354,16 @@
         <v>1</v>
       </c>
       <c r="D180" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180" t="s">
+        <v>17</v>
+      </c>
+      <c r="F180" t="s">
         <v>124</v>
       </c>
-      <c r="E180" t="s">
-        <v>17</v>
-      </c>
-      <c r="F180" t="s">
-        <v>127</v>
-      </c>
       <c r="G180" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
@@ -11420,16 +11407,16 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
+        <v>121</v>
+      </c>
+      <c r="E181" t="s">
+        <v>17</v>
+      </c>
+      <c r="F181" t="s">
         <v>124</v>
       </c>
-      <c r="E181" t="s">
-        <v>17</v>
-      </c>
-      <c r="F181" t="s">
-        <v>127</v>
-      </c>
       <c r="G181" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H181" t="s">
         <v>20</v>
@@ -11473,16 +11460,16 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
+        <v>121</v>
+      </c>
+      <c r="E182" t="s">
+        <v>17</v>
+      </c>
+      <c r="F182" t="s">
         <v>124</v>
       </c>
-      <c r="E182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" t="s">
-        <v>127</v>
-      </c>
       <c r="G182" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H182" t="s">
         <v>20</v>
@@ -11526,16 +11513,16 @@
         <v>1</v>
       </c>
       <c r="D183" t="s">
+        <v>121</v>
+      </c>
+      <c r="E183" t="s">
+        <v>17</v>
+      </c>
+      <c r="F183" t="s">
         <v>124</v>
       </c>
-      <c r="E183" t="s">
-        <v>17</v>
-      </c>
-      <c r="F183" t="s">
-        <v>127</v>
-      </c>
       <c r="G183" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H183" t="s">
         <v>20</v>
@@ -11568,7 +11555,7 @@
         <v>22</v>
       </c>
       <c r="R183" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
@@ -11582,16 +11569,16 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
+        <v>121</v>
+      </c>
+      <c r="E184" t="s">
+        <v>17</v>
+      </c>
+      <c r="F184" t="s">
         <v>124</v>
       </c>
-      <c r="E184" t="s">
-        <v>17</v>
-      </c>
-      <c r="F184" t="s">
-        <v>127</v>
-      </c>
       <c r="G184" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H184" t="s">
         <v>20</v>
@@ -11635,16 +11622,16 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
+        <v>121</v>
+      </c>
+      <c r="E185" t="s">
+        <v>17</v>
+      </c>
+      <c r="F185" t="s">
         <v>124</v>
       </c>
-      <c r="E185" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" t="s">
-        <v>127</v>
-      </c>
       <c r="G185" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H185" t="s">
         <v>20</v>
@@ -11688,16 +11675,16 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
+        <v>121</v>
+      </c>
+      <c r="E186" t="s">
+        <v>17</v>
+      </c>
+      <c r="F186" t="s">
         <v>124</v>
       </c>
-      <c r="E186" t="s">
-        <v>17</v>
-      </c>
-      <c r="F186" t="s">
-        <v>127</v>
-      </c>
       <c r="G186" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H186" t="s">
         <v>20</v>
@@ -11741,16 +11728,16 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
+        <v>121</v>
+      </c>
+      <c r="E187" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" t="s">
         <v>124</v>
       </c>
-      <c r="E187" t="s">
-        <v>17</v>
-      </c>
-      <c r="F187" t="s">
-        <v>127</v>
-      </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H187" t="s">
         <v>20</v>
@@ -11794,16 +11781,16 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
+        <v>121</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+      <c r="F188" t="s">
         <v>124</v>
       </c>
-      <c r="E188" t="s">
-        <v>17</v>
-      </c>
-      <c r="F188" t="s">
-        <v>127</v>
-      </c>
       <c r="G188" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H188" t="s">
         <v>20</v>
@@ -11847,16 +11834,16 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
+        <v>121</v>
+      </c>
+      <c r="E189" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" t="s">
         <v>124</v>
       </c>
-      <c r="E189" t="s">
-        <v>17</v>
-      </c>
-      <c r="F189" t="s">
-        <v>127</v>
-      </c>
       <c r="G189" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H189" t="s">
         <v>20</v>
@@ -11900,13 +11887,13 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E190" t="s">
         <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -11923,7 +11910,7 @@
       <c r="K190">
         <v>0.25</v>
       </c>
-      <c r="L190" t="s">
+      <c r="L190" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M190" t="s">
@@ -11942,7 +11929,7 @@
         <v>22</v>
       </c>
       <c r="R190" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -11956,13 +11943,13 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E191" t="s">
         <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G191" t="s">
         <v>37</v>
@@ -11979,7 +11966,7 @@
       <c r="K191">
         <v>0.61</v>
       </c>
-      <c r="L191" t="s">
+      <c r="L191" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M191" t="s">
@@ -11998,7 +11985,7 @@
         <v>22</v>
       </c>
       <c r="R191" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -12012,13 +11999,13 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E192" t="s">
         <v>37</v>
       </c>
       <c r="F192" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G192" t="s">
         <v>37</v>
@@ -12035,7 +12022,7 @@
       <c r="K192">
         <v>0.62</v>
       </c>
-      <c r="L192" t="s">
+      <c r="L192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M192" t="s">
@@ -12054,7 +12041,7 @@
         <v>22</v>
       </c>
       <c r="R192" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -12068,13 +12055,13 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E193" t="s">
         <v>37</v>
       </c>
       <c r="F193" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G193" t="s">
         <v>37</v>
@@ -12091,7 +12078,7 @@
       <c r="K193">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L193" t="s">
+      <c r="L193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M193" t="s">
@@ -12110,7 +12097,7 @@
         <v>22</v>
       </c>
       <c r="R193" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -12124,13 +12111,13 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E194" t="s">
         <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G194" t="s">
         <v>37</v>
@@ -12147,7 +12134,7 @@
       <c r="K194">
         <v>0.42</v>
       </c>
-      <c r="L194" t="s">
+      <c r="L194" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M194" t="s">
@@ -12166,7 +12153,7 @@
         <v>22</v>
       </c>
       <c r="R194" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -12180,16 +12167,16 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E195" t="s">
         <v>17</v>
       </c>
       <c r="F195" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G195" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H195" t="s">
         <v>20</v>
@@ -12203,7 +12190,7 @@
       <c r="K195">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M195" t="s">
@@ -12222,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="R195" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="1:18" ht="51" x14ac:dyDescent="0.2">
@@ -12236,16 +12223,16 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
+        <v>127</v>
+      </c>
+      <c r="E196" t="s">
+        <v>17</v>
+      </c>
+      <c r="F196" t="s">
         <v>130</v>
       </c>
-      <c r="E196" t="s">
-        <v>17</v>
-      </c>
-      <c r="F196" t="s">
-        <v>133</v>
-      </c>
       <c r="G196" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H196" t="s">
         <v>20</v>
@@ -12259,7 +12246,7 @@
       <c r="K196">
         <v>0.35</v>
       </c>
-      <c r="L196" t="s">
+      <c r="L196" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M196" t="s">
@@ -12278,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="R196" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
@@ -12292,16 +12279,16 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E197" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F197" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G197" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H197" t="s">
         <v>49</v>
@@ -12345,16 +12332,16 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E198" t="s">
         <v>34</v>
       </c>
       <c r="F198" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G198" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H198" t="s">
         <v>49</v>
@@ -12398,16 +12385,16 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E199" t="s">
         <v>34</v>
       </c>
       <c r="F199" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G199" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H199" t="s">
         <v>49</v>
@@ -12451,16 +12438,16 @@
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E200" t="s">
         <v>34</v>
       </c>
       <c r="F200" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G200" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H200" t="s">
         <v>49</v>
@@ -12504,16 +12491,16 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E201" t="s">
         <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G201" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H201" t="s">
         <v>49</v>
@@ -12557,16 +12544,16 @@
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E202" t="s">
         <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G202" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H202" t="s">
         <v>49</v>
@@ -12610,16 +12597,16 @@
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E203" t="s">
         <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G203" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H203" t="s">
         <v>49</v>
@@ -12663,16 +12650,16 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E204" t="s">
         <v>34</v>
       </c>
       <c r="F204" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G204" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H204" t="s">
         <v>49</v>
@@ -12716,16 +12703,16 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E205" t="s">
         <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G205" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H205" t="s">
         <v>49</v>
@@ -12769,16 +12756,16 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E206" t="s">
         <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G206" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H206" t="s">
         <v>49</v>
@@ -12822,16 +12809,16 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E207" t="s">
         <v>34</v>
       </c>
       <c r="F207" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G207" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>49</v>
@@ -12875,16 +12862,16 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E208" t="s">
         <v>34</v>
       </c>
       <c r="F208" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G208" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H208" t="s">
         <v>49</v>
@@ -12928,16 +12915,16 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E209" t="s">
         <v>34</v>
       </c>
       <c r="F209" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G209" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H209" t="s">
         <v>49</v>
@@ -12981,16 +12968,16 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E210" t="s">
         <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G210" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H210" t="s">
         <v>49</v>
@@ -13034,16 +13021,16 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E211" t="s">
         <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G211" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H211" t="s">
         <v>49</v>
@@ -13087,16 +13074,16 @@
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E212" t="s">
         <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G212" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H212" t="s">
         <v>49</v>
@@ -13140,13 +13127,13 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E213" t="s">
         <v>34</v>
       </c>
       <c r="F213" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G213" t="s">
         <v>37</v>
@@ -13182,7 +13169,7 @@
         <v>22</v>
       </c>
       <c r="R213" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="214" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13196,13 +13183,13 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E214" t="s">
         <v>34</v>
       </c>
       <c r="F214" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G214" t="s">
         <v>37</v>
@@ -13238,7 +13225,7 @@
         <v>22</v>
       </c>
       <c r="R214" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13252,13 +13239,13 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E215" t="s">
         <v>34</v>
       </c>
       <c r="F215" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G215" t="s">
         <v>37</v>
@@ -13294,7 +13281,7 @@
         <v>22</v>
       </c>
       <c r="R215" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -13308,13 +13295,13 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E216" t="s">
         <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G216" t="s">
         <v>37</v>
@@ -13350,10 +13337,10 @@
         <v>22</v>
       </c>
       <c r="R216" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>47</v>
       </c>
@@ -13364,16 +13351,16 @@
         <v>0</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>49</v>
@@ -13406,7 +13393,7 @@
         <v>1</v>
       </c>
       <c r="R217" s="3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -13420,16 +13407,16 @@
         <v>0</v>
       </c>
       <c r="D218" t="s">
+        <v>158</v>
+      </c>
+      <c r="E218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F218" t="s">
         <v>161</v>
       </c>
-      <c r="E218" t="s">
-        <v>17</v>
-      </c>
-      <c r="F218" t="s">
-        <v>165</v>
-      </c>
       <c r="G218" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H218" t="s">
         <v>20</v>
@@ -13443,7 +13430,7 @@
       <c r="K218">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L218" t="s">
+      <c r="L218" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M218" t="s">
@@ -13462,7 +13449,7 @@
         <v>22</v>
       </c>
       <c r="R218" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
@@ -13476,16 +13463,16 @@
         <v>0</v>
       </c>
       <c r="D219" t="s">
+        <v>158</v>
+      </c>
+      <c r="E219" t="s">
+        <v>17</v>
+      </c>
+      <c r="F219" t="s">
         <v>161</v>
       </c>
-      <c r="E219" t="s">
-        <v>17</v>
-      </c>
-      <c r="F219" t="s">
-        <v>165</v>
-      </c>
       <c r="G219" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H219" t="s">
         <v>20</v>
@@ -13499,7 +13486,7 @@
       <c r="K219">
         <v>0.48</v>
       </c>
-      <c r="L219" t="s">
+      <c r="L219" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M219" t="s">
@@ -13529,16 +13516,16 @@
         <v>0</v>
       </c>
       <c r="D220" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E220" t="s">
         <v>17</v>
       </c>
       <c r="F220" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G220" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H220" t="s">
         <v>20</v>
@@ -13582,16 +13569,16 @@
         <v>0</v>
       </c>
       <c r="D221" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E221" t="s">
         <v>17</v>
       </c>
       <c r="F221" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G221" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H221" t="s">
         <v>20</v>
@@ -13635,16 +13622,16 @@
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E222" t="s">
         <v>17</v>
       </c>
       <c r="F222" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G222" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H222" t="s">
         <v>20</v>
@@ -13688,16 +13675,16 @@
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E223" t="s">
         <v>17</v>
       </c>
       <c r="F223" t="s">
+        <v>164</v>
+      </c>
+      <c r="G223" t="s">
         <v>168</v>
-      </c>
-      <c r="G223" t="s">
-        <v>172</v>
       </c>
       <c r="H223" t="s">
         <v>20</v>
@@ -13741,16 +13728,16 @@
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E224" t="s">
         <v>17</v>
       </c>
       <c r="F224" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G224" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H224" t="s">
         <v>20</v>
@@ -13794,16 +13781,16 @@
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E225" t="s">
         <v>17</v>
       </c>
       <c r="F225" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G225" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H225" t="s">
         <v>20</v>
@@ -13847,16 +13834,16 @@
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E226" t="s">
         <v>17</v>
       </c>
       <c r="F226" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G226" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H226" t="s">
         <v>20</v>
@@ -13900,16 +13887,16 @@
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E227" t="s">
         <v>17</v>
       </c>
       <c r="F227" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G227" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H227" t="s">
         <v>20</v>
@@ -13953,16 +13940,16 @@
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E228" t="s">
         <v>17</v>
       </c>
       <c r="F228" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H228" t="s">
         <v>20</v>
@@ -14006,16 +13993,16 @@
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E229" t="s">
         <v>17</v>
       </c>
       <c r="F229" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G229" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H229" t="s">
         <v>20</v>
@@ -14059,16 +14046,16 @@
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E230" t="s">
         <v>17</v>
       </c>
       <c r="F230" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G230" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H230" t="s">
         <v>20</v>
@@ -14112,16 +14099,16 @@
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E231" t="s">
         <v>17</v>
       </c>
       <c r="F231" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G231" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H231" t="s">
         <v>20</v>
@@ -14165,16 +14152,16 @@
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E232" t="s">
         <v>17</v>
       </c>
       <c r="F232" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G232" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H232" t="s">
         <v>20</v>
@@ -14218,16 +14205,16 @@
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E233" t="s">
         <v>17</v>
       </c>
       <c r="F233" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G233" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H233" t="s">
         <v>20</v>
@@ -14271,16 +14258,16 @@
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E234" t="s">
         <v>17</v>
       </c>
       <c r="F234" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G234" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H234" t="s">
         <v>20</v>
@@ -14324,16 +14311,16 @@
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E235" t="s">
         <v>17</v>
       </c>
       <c r="F235" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G235" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H235" t="s">
         <v>20</v>
@@ -14377,16 +14364,16 @@
         <v>0</v>
       </c>
       <c r="D236" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E236" t="s">
         <v>17</v>
       </c>
       <c r="F236" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G236" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H236" t="s">
         <v>20</v>
@@ -14430,16 +14417,16 @@
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E237" t="s">
         <v>17</v>
       </c>
       <c r="F237" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G237" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H237" t="s">
         <v>20</v>
@@ -14483,16 +14470,16 @@
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E238" t="s">
         <v>17</v>
       </c>
       <c r="F238" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G238" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H238" t="s">
         <v>20</v>
@@ -14536,16 +14523,16 @@
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E239" t="s">
         <v>17</v>
       </c>
       <c r="F239" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G239" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H239" t="s">
         <v>20</v>
@@ -14589,16 +14576,16 @@
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E240" t="s">
         <v>17</v>
       </c>
       <c r="F240" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G240" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H240" t="s">
         <v>20</v>
@@ -14642,16 +14629,16 @@
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E241" t="s">
         <v>17</v>
       </c>
       <c r="F241" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G241" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H241" t="s">
         <v>20</v>
@@ -14695,16 +14682,16 @@
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E242" t="s">
         <v>17</v>
       </c>
       <c r="F242" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G242" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H242" t="s">
         <v>20</v>
@@ -14748,16 +14735,16 @@
         <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E243" t="s">
         <v>17</v>
       </c>
       <c r="F243" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G243" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H243" t="s">
         <v>20</v>
@@ -14801,16 +14788,16 @@
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E244" t="s">
         <v>17</v>
       </c>
       <c r="F244" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G244" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H244" t="s">
         <v>20</v>
@@ -14854,16 +14841,16 @@
         <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E245" t="s">
         <v>17</v>
       </c>
       <c r="F245" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G245" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H245" t="s">
         <v>20</v>
@@ -14907,16 +14894,16 @@
         <v>0</v>
       </c>
       <c r="D246" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E246" t="s">
         <v>17</v>
       </c>
       <c r="F246" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G246" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H246" t="s">
         <v>20</v>
@@ -14960,16 +14947,16 @@
         <v>0</v>
       </c>
       <c r="D247" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E247" t="s">
         <v>17</v>
       </c>
       <c r="F247" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G247" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H247" t="s">
         <v>20</v>
@@ -15013,16 +15000,16 @@
         <v>0</v>
       </c>
       <c r="D248" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E248" t="s">
         <v>17</v>
       </c>
       <c r="F248" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G248" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H248" t="s">
         <v>20</v>
@@ -15066,16 +15053,16 @@
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E249" t="s">
         <v>17</v>
       </c>
       <c r="F249" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G249" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H249" t="s">
         <v>20</v>
@@ -15119,16 +15106,16 @@
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E250" t="s">
         <v>17</v>
       </c>
       <c r="F250" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G250" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H250" t="s">
         <v>20</v>
@@ -15172,16 +15159,16 @@
         <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E251" t="s">
         <v>17</v>
       </c>
       <c r="F251" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G251" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H251" t="s">
         <v>20</v>
@@ -15225,16 +15212,16 @@
         <v>0</v>
       </c>
       <c r="D252" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E252" t="s">
         <v>17</v>
       </c>
       <c r="F252" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G252" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H252" t="s">
         <v>20</v>
@@ -15278,16 +15265,16 @@
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E253" t="s">
         <v>17</v>
       </c>
       <c r="F253" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G253" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H253" t="s">
         <v>20</v>
@@ -15331,16 +15318,16 @@
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E254" t="s">
         <v>17</v>
       </c>
       <c r="F254" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G254" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H254" t="s">
         <v>20</v>
@@ -15384,16 +15371,16 @@
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E255" t="s">
         <v>17</v>
       </c>
       <c r="F255" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G255" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H255" t="s">
         <v>20</v>
@@ -15437,16 +15424,16 @@
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E256" t="s">
         <v>17</v>
       </c>
       <c r="F256" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G256" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H256" t="s">
         <v>20</v>
@@ -15490,16 +15477,16 @@
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E257" t="s">
         <v>17</v>
       </c>
       <c r="F257" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G257" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H257" t="s">
         <v>20</v>
@@ -15543,16 +15530,16 @@
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E258" t="s">
         <v>17</v>
       </c>
       <c r="F258" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G258" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H258" t="s">
         <v>20</v>
@@ -15596,16 +15583,16 @@
         <v>0</v>
       </c>
       <c r="D259" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E259" t="s">
         <v>17</v>
       </c>
       <c r="F259" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G259" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H259" t="s">
         <v>20</v>
@@ -15649,16 +15636,16 @@
         <v>0</v>
       </c>
       <c r="D260" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E260" t="s">
         <v>17</v>
       </c>
       <c r="F260" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G260" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H260" t="s">
         <v>20</v>
@@ -15691,7 +15678,7 @@
         <v>1</v>
       </c>
       <c r="R260" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="261" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15705,16 +15692,16 @@
         <v>0</v>
       </c>
       <c r="D261" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E261" t="s">
         <v>17</v>
       </c>
       <c r="F261" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G261" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H261" t="s">
         <v>20</v>
@@ -15747,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="R261" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15761,16 +15748,16 @@
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E262" t="s">
         <v>17</v>
       </c>
       <c r="F262" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G262" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H262" t="s">
         <v>20</v>
@@ -15803,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="R262" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15817,16 +15804,16 @@
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E263" t="s">
         <v>17</v>
       </c>
       <c r="F263" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G263" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H263" t="s">
         <v>20</v>
@@ -15859,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="R263" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15873,16 +15860,16 @@
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E264" t="s">
         <v>17</v>
       </c>
       <c r="F264" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G264" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H264" t="s">
         <v>20</v>
@@ -15915,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="R264" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15929,16 +15916,16 @@
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E265" t="s">
         <v>17</v>
       </c>
       <c r="F265" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G265" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H265" t="s">
         <v>20</v>
@@ -15971,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="R265" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -15985,16 +15972,16 @@
         <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E266" t="s">
         <v>17</v>
       </c>
       <c r="F266" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G266" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H266" t="s">
         <v>20</v>
@@ -16027,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="R266" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16041,16 +16028,16 @@
         <v>0</v>
       </c>
       <c r="D267" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E267" t="s">
         <v>17</v>
       </c>
       <c r="F267" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G267" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H267" t="s">
         <v>20</v>
@@ -16083,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="R267" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16097,16 +16084,16 @@
         <v>0</v>
       </c>
       <c r="D268" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E268" t="s">
         <v>17</v>
       </c>
       <c r="F268" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G268" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H268" t="s">
         <v>20</v>
@@ -16139,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="R268" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16153,16 +16140,16 @@
         <v>0</v>
       </c>
       <c r="D269" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E269" t="s">
         <v>17</v>
       </c>
       <c r="F269" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G269" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H269" t="s">
         <v>20</v>
@@ -16195,7 +16182,7 @@
         <v>1</v>
       </c>
       <c r="R269" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16209,16 +16196,16 @@
         <v>0</v>
       </c>
       <c r="D270" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E270" t="s">
         <v>17</v>
       </c>
       <c r="F270" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G270" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H270" t="s">
         <v>20</v>
@@ -16251,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="R270" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="271" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16265,16 +16252,16 @@
         <v>0</v>
       </c>
       <c r="D271" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E271" t="s">
         <v>17</v>
       </c>
       <c r="F271" t="s">
+        <v>178</v>
+      </c>
+      <c r="G271" t="s">
         <v>182</v>
-      </c>
-      <c r="G271" t="s">
-        <v>186</v>
       </c>
       <c r="H271" t="s">
         <v>20</v>
@@ -16307,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="R271" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16321,16 +16308,16 @@
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E272" t="s">
         <v>17</v>
       </c>
       <c r="F272" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G272" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H272" t="s">
         <v>20</v>
@@ -16363,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="R272" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="273" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16377,16 +16364,16 @@
         <v>0</v>
       </c>
       <c r="D273" t="s">
+        <v>180</v>
+      </c>
+      <c r="E273" t="s">
+        <v>17</v>
+      </c>
+      <c r="F273" t="s">
+        <v>178</v>
+      </c>
+      <c r="G273" t="s">
         <v>184</v>
-      </c>
-      <c r="E273" t="s">
-        <v>17</v>
-      </c>
-      <c r="F273" t="s">
-        <v>182</v>
-      </c>
-      <c r="G273" t="s">
-        <v>188</v>
       </c>
       <c r="H273" t="s">
         <v>20</v>
@@ -16419,7 +16406,7 @@
         <v>0</v>
       </c>
       <c r="R273" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="274" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16433,16 +16420,16 @@
         <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E274" t="s">
         <v>17</v>
       </c>
       <c r="F274" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G274" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H274" t="s">
         <v>20</v>
@@ -16475,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="R274" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="275" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16489,16 +16476,16 @@
         <v>0</v>
       </c>
       <c r="D275" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E275" t="s">
         <v>17</v>
       </c>
       <c r="F275" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G275" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H275" t="s">
         <v>20</v>
@@ -16531,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="R275" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16545,16 +16532,16 @@
         <v>0</v>
       </c>
       <c r="D276" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E276" t="s">
         <v>17</v>
       </c>
       <c r="F276" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G276" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H276" t="s">
         <v>20</v>
@@ -16587,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="R276" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16601,16 +16588,16 @@
         <v>0</v>
       </c>
       <c r="D277" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E277" t="s">
         <v>17</v>
       </c>
       <c r="F277" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G277" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H277" t="s">
         <v>20</v>
@@ -16643,7 +16630,7 @@
         <v>0</v>
       </c>
       <c r="R277" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="278" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16657,16 +16644,16 @@
         <v>0</v>
       </c>
       <c r="D278" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E278" t="s">
         <v>17</v>
       </c>
       <c r="F278" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G278" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H278" t="s">
         <v>20</v>
@@ -16699,7 +16686,7 @@
         <v>1</v>
       </c>
       <c r="R278" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="279" spans="1:18" ht="34" x14ac:dyDescent="0.2">
@@ -16713,16 +16700,16 @@
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E279" t="s">
         <v>17</v>
       </c>
       <c r="F279" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G279" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H279" t="s">
         <v>20</v>
@@ -16755,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="R279" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.2">
@@ -16769,16 +16756,16 @@
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E280" t="s">
         <v>17</v>
       </c>
       <c r="F280" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G280" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H280" t="s">
         <v>20</v>
@@ -16822,16 +16809,16 @@
         <v>0</v>
       </c>
       <c r="D281" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E281" t="s">
         <v>17</v>
       </c>
       <c r="F281" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G281" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H281" t="s">
         <v>20</v>
@@ -16875,16 +16862,16 @@
         <v>0</v>
       </c>
       <c r="D282" t="s">
+        <v>180</v>
+      </c>
+      <c r="E282" t="s">
+        <v>17</v>
+      </c>
+      <c r="F282" t="s">
+        <v>164</v>
+      </c>
+      <c r="G282" t="s">
         <v>184</v>
-      </c>
-      <c r="E282" t="s">
-        <v>17</v>
-      </c>
-      <c r="F282" t="s">
-        <v>168</v>
-      </c>
-      <c r="G282" t="s">
-        <v>188</v>
       </c>
       <c r="H282" t="s">
         <v>20</v>
@@ -16928,16 +16915,16 @@
         <v>0</v>
       </c>
       <c r="D283" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E283" t="s">
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G283" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H283" t="s">
         <v>20</v>
@@ -16981,16 +16968,16 @@
         <v>0</v>
       </c>
       <c r="D284" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E284" t="s">
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G284" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H284" t="s">
         <v>20</v>
@@ -17034,16 +17021,16 @@
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E285" t="s">
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G285" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H285" t="s">
         <v>20</v>
@@ -17087,16 +17074,16 @@
         <v>0</v>
       </c>
       <c r="D286" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E286" t="s">
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G286" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H286" t="s">
         <v>20</v>
@@ -17140,16 +17127,16 @@
         <v>0</v>
       </c>
       <c r="D287" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E287" t="s">
         <v>17</v>
       </c>
       <c r="F287" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G287" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H287" t="s">
         <v>20</v>
@@ -17193,16 +17180,16 @@
         <v>0</v>
       </c>
       <c r="D288" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E288" t="s">
         <v>17</v>
       </c>
       <c r="F288" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G288" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H288" t="s">
         <v>20</v>
@@ -17235,7 +17222,7 @@
         <v>0</v>
       </c>
       <c r="R288" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
@@ -17249,16 +17236,16 @@
         <v>0</v>
       </c>
       <c r="D289" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E289" t="s">
         <v>17</v>
       </c>
       <c r="F289" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G289" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H289" t="s">
         <v>20</v>
@@ -17302,16 +17289,16 @@
         <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E290" t="s">
         <v>17</v>
       </c>
       <c r="F290" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G290" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H290" t="s">
         <v>20</v>
@@ -17355,16 +17342,16 @@
         <v>0</v>
       </c>
       <c r="D291" t="s">
+        <v>180</v>
+      </c>
+      <c r="E291" t="s">
+        <v>17</v>
+      </c>
+      <c r="F291" t="s">
+        <v>175</v>
+      </c>
+      <c r="G291" t="s">
         <v>184</v>
-      </c>
-      <c r="E291" t="s">
-        <v>17</v>
-      </c>
-      <c r="F291" t="s">
-        <v>179</v>
-      </c>
-      <c r="G291" t="s">
-        <v>188</v>
       </c>
       <c r="H291" t="s">
         <v>20</v>
@@ -17408,16 +17395,16 @@
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E292" t="s">
         <v>17</v>
       </c>
       <c r="F292" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G292" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H292" t="s">
         <v>20</v>
@@ -17461,16 +17448,16 @@
         <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E293" t="s">
         <v>17</v>
       </c>
       <c r="F293" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G293" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H293" t="s">
         <v>20</v>
@@ -17514,16 +17501,16 @@
         <v>0</v>
       </c>
       <c r="D294" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E294" t="s">
         <v>17</v>
       </c>
       <c r="F294" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G294" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H294" t="s">
         <v>20</v>
@@ -17567,16 +17554,16 @@
         <v>0</v>
       </c>
       <c r="D295" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E295" t="s">
         <v>17</v>
       </c>
       <c r="F295" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G295" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H295" t="s">
         <v>20</v>
@@ -17620,16 +17607,16 @@
         <v>0</v>
       </c>
       <c r="D296" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E296" t="s">
         <v>17</v>
       </c>
       <c r="F296" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G296" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H296" t="s">
         <v>20</v>
@@ -17673,16 +17660,16 @@
         <v>0</v>
       </c>
       <c r="D297" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E297" t="s">
         <v>17</v>
       </c>
       <c r="F297" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G297" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H297" t="s">
         <v>20</v>
@@ -17715,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="R297" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
@@ -17729,16 +17716,16 @@
         <v>0</v>
       </c>
       <c r="D298" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E298" t="s">
         <v>17</v>
       </c>
       <c r="F298" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G298" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H298" t="s">
         <v>20</v>
@@ -17782,16 +17769,16 @@
         <v>0</v>
       </c>
       <c r="D299" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E299" t="s">
         <v>17</v>
       </c>
       <c r="F299" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G299" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H299" t="s">
         <v>20</v>
@@ -17835,16 +17822,16 @@
         <v>0</v>
       </c>
       <c r="D300" t="s">
+        <v>180</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="s">
+        <v>176</v>
+      </c>
+      <c r="G300" t="s">
         <v>184</v>
-      </c>
-      <c r="E300" t="s">
-        <v>17</v>
-      </c>
-      <c r="F300" t="s">
-        <v>180</v>
-      </c>
-      <c r="G300" t="s">
-        <v>188</v>
       </c>
       <c r="H300" t="s">
         <v>20</v>
@@ -17888,16 +17875,16 @@
         <v>0</v>
       </c>
       <c r="D301" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E301" t="s">
         <v>17</v>
       </c>
       <c r="F301" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G301" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H301" t="s">
         <v>20</v>
@@ -17941,16 +17928,16 @@
         <v>0</v>
       </c>
       <c r="D302" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E302" t="s">
         <v>17</v>
       </c>
       <c r="F302" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G302" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H302" t="s">
         <v>20</v>
@@ -17994,16 +17981,16 @@
         <v>0</v>
       </c>
       <c r="D303" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E303" t="s">
         <v>17</v>
       </c>
       <c r="F303" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G303" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H303" t="s">
         <v>20</v>
@@ -18047,16 +18034,16 @@
         <v>0</v>
       </c>
       <c r="D304" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E304" t="s">
         <v>17</v>
       </c>
       <c r="F304" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G304" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H304" t="s">
         <v>20</v>
@@ -18100,16 +18087,16 @@
         <v>0</v>
       </c>
       <c r="D305" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E305" t="s">
         <v>17</v>
       </c>
       <c r="F305" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G305" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H305" t="s">
         <v>20</v>
@@ -18153,16 +18140,16 @@
         <v>0</v>
       </c>
       <c r="D306" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E306" t="s">
         <v>17</v>
       </c>
       <c r="F306" t="s">
+        <v>177</v>
+      </c>
+      <c r="G306" t="s">
         <v>181</v>
-      </c>
-      <c r="G306" t="s">
-        <v>185</v>
       </c>
       <c r="H306" t="s">
         <v>20</v>
@@ -18195,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="R306" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.2">
@@ -18209,16 +18196,16 @@
         <v>0</v>
       </c>
       <c r="D307" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E307" t="s">
         <v>17</v>
       </c>
       <c r="F307" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G307" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H307" t="s">
         <v>20</v>
@@ -18262,16 +18249,16 @@
         <v>0</v>
       </c>
       <c r="D308" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E308" t="s">
         <v>17</v>
       </c>
       <c r="F308" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G308" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H308" t="s">
         <v>20</v>
@@ -18315,16 +18302,16 @@
         <v>0</v>
       </c>
       <c r="D309" t="s">
+        <v>180</v>
+      </c>
+      <c r="E309" t="s">
+        <v>17</v>
+      </c>
+      <c r="F309" t="s">
+        <v>177</v>
+      </c>
+      <c r="G309" t="s">
         <v>184</v>
-      </c>
-      <c r="E309" t="s">
-        <v>17</v>
-      </c>
-      <c r="F309" t="s">
-        <v>181</v>
-      </c>
-      <c r="G309" t="s">
-        <v>188</v>
       </c>
       <c r="H309" t="s">
         <v>20</v>
@@ -18368,16 +18355,16 @@
         <v>0</v>
       </c>
       <c r="D310" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E310" t="s">
         <v>17</v>
       </c>
       <c r="F310" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G310" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H310" t="s">
         <v>20</v>
@@ -18421,16 +18408,16 @@
         <v>0</v>
       </c>
       <c r="D311" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E311" t="s">
         <v>17</v>
       </c>
       <c r="F311" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G311" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H311" t="s">
         <v>20</v>
@@ -18474,16 +18461,16 @@
         <v>0</v>
       </c>
       <c r="D312" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E312" t="s">
         <v>17</v>
       </c>
       <c r="F312" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G312" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H312" t="s">
         <v>20</v>
@@ -18527,16 +18514,16 @@
         <v>0</v>
       </c>
       <c r="D313" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E313" t="s">
         <v>17</v>
       </c>
       <c r="F313" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G313" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H313" t="s">
         <v>20</v>
@@ -18580,16 +18567,16 @@
         <v>0</v>
       </c>
       <c r="D314" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E314" t="s">
         <v>17</v>
       </c>
       <c r="F314" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G314" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H314" t="s">
         <v>20</v>
@@ -18633,13 +18620,13 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E315" t="s">
         <v>37</v>
       </c>
       <c r="F315" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G315" t="s">
         <v>37</v>
@@ -18656,16 +18643,16 @@
       <c r="K315">
         <v>0.82</v>
       </c>
-      <c r="L315" t="s">
-        <v>22</v>
-      </c>
-      <c r="M315" t="s">
+      <c r="L315" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M315" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N315">
         <v>24</v>
       </c>
-      <c r="O315" s="7" t="b">
+      <c r="O315" t="b">
         <v>0</v>
       </c>
       <c r="P315" t="s">
@@ -18675,7 +18662,7 @@
         <v>22</v>
       </c>
       <c r="R315" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="316" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -18689,13 +18676,13 @@
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E316" t="s">
         <v>37</v>
       </c>
       <c r="F316" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G316" t="s">
         <v>37</v>
@@ -18712,16 +18699,16 @@
       <c r="K316">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L316" t="s">
-        <v>22</v>
-      </c>
-      <c r="M316" t="s">
+      <c r="L316" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M316" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N316">
         <v>24</v>
       </c>
-      <c r="O316" s="7" t="b">
+      <c r="O316" t="b">
         <v>0</v>
       </c>
       <c r="P316" t="s">
@@ -18731,7 +18718,7 @@
         <v>22</v>
       </c>
       <c r="R316" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.2">
@@ -18745,16 +18732,16 @@
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E317" t="s">
         <v>34</v>
       </c>
       <c r="F317" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G317" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H317" t="s">
         <v>49</v>
@@ -18777,7 +18764,7 @@
       <c r="N317">
         <v>37</v>
       </c>
-      <c r="O317" s="7" t="b">
+      <c r="O317" t="b">
         <v>1</v>
       </c>
       <c r="P317" t="b">
@@ -18786,7 +18773,6 @@
       <c r="Q317" t="b">
         <v>1</v>
       </c>
-      <c r="R317" s="9"/>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A318">
@@ -18799,16 +18785,16 @@
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E318" t="s">
         <v>34</v>
       </c>
       <c r="F318" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G318" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H318" t="s">
         <v>49</v>
@@ -18831,7 +18817,7 @@
       <c r="N318">
         <v>30</v>
       </c>
-      <c r="O318" s="7" t="b">
+      <c r="O318" t="b">
         <v>1</v>
       </c>
       <c r="P318" t="b">
@@ -18840,7 +18826,6 @@
       <c r="Q318" t="b">
         <v>1</v>
       </c>
-      <c r="R318" s="9"/>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A319">
@@ -18853,16 +18838,16 @@
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E319" t="s">
         <v>34</v>
       </c>
       <c r="F319" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G319" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H319" t="s">
         <v>49</v>
@@ -18885,7 +18870,7 @@
       <c r="N319">
         <v>19</v>
       </c>
-      <c r="O319" s="7" t="b">
+      <c r="O319" t="b">
         <v>1</v>
       </c>
       <c r="P319" t="b">
@@ -18894,7 +18879,6 @@
       <c r="Q319" t="b">
         <v>1</v>
       </c>
-      <c r="R319" s="9"/>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A320">
@@ -18907,13 +18891,13 @@
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E320" t="s">
         <v>37</v>
       </c>
       <c r="F320" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G320" t="s">
         <v>37</v>
@@ -18939,7 +18923,7 @@
       <c r="N320">
         <v>5</v>
       </c>
-      <c r="O320" s="7" t="b">
+      <c r="O320" t="b">
         <v>1</v>
       </c>
       <c r="P320" t="b">
@@ -18948,9 +18932,8 @@
       <c r="Q320" t="b">
         <v>1</v>
       </c>
-      <c r="R320" s="9"/>
-    </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>54</v>
       </c>
@@ -18961,13 +18944,13 @@
         <v>1</v>
       </c>
       <c r="D321" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E321" t="s">
         <v>37</v>
       </c>
       <c r="F321" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G321" t="s">
         <v>37</v>
@@ -18993,7 +18976,7 @@
       <c r="N321">
         <v>8</v>
       </c>
-      <c r="O321" s="7" t="b">
+      <c r="O321" t="b">
         <v>1</v>
       </c>
       <c r="P321" t="b">
@@ -19002,9 +18985,8 @@
       <c r="Q321" t="b">
         <v>1</v>
       </c>
-      <c r="R321" s="9"/>
-    </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>55</v>
       </c>
@@ -19015,16 +18997,16 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E322" t="s">
         <v>34</v>
       </c>
       <c r="F322" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G322" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H322" t="s">
         <v>49</v>
@@ -19047,7 +19029,7 @@
       <c r="N322">
         <v>13</v>
       </c>
-      <c r="O322" s="7" t="b">
+      <c r="O322" t="b">
         <v>1</v>
       </c>
       <c r="P322" t="b">
@@ -19056,9 +19038,8 @@
       <c r="Q322" t="b">
         <v>1</v>
       </c>
-      <c r="R322" s="9"/>
-    </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>56</v>
       </c>
@@ -19069,16 +19050,16 @@
         <v>1</v>
       </c>
       <c r="D323" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E323" t="s">
         <v>34</v>
       </c>
       <c r="F323" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G323" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H323" t="s">
         <v>49</v>
@@ -19101,7 +19082,7 @@
       <c r="N323">
         <v>13</v>
       </c>
-      <c r="O323" s="7" t="b">
+      <c r="O323" t="b">
         <v>1</v>
       </c>
       <c r="P323" t="b">
@@ -19110,10 +19091,6 @@
       <c r="Q323" t="b">
         <v>1</v>
       </c>
-      <c r="R323" s="9"/>
-    </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R324" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
